--- a/data-raw/df_instrument.xlsx
+++ b/data-raw/df_instrument.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="72">
   <si>
     <t>enunciado</t>
   </si>
@@ -87,12 +87,6 @@
     <t>negative_feedback</t>
   </si>
   <si>
-    <t>strategy</t>
-  </si>
-  <si>
-    <t>fixed</t>
-  </si>
-  <si>
     <t>Você ganhou</t>
   </si>
   <si>
@@ -106,6 +100,138 @@
   </si>
   <si>
     <t>Item 10</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>item11</t>
+  </si>
+  <si>
+    <t>Item 11</t>
+  </si>
+  <si>
+    <t>item12</t>
+  </si>
+  <si>
+    <t>Item 12</t>
+  </si>
+  <si>
+    <t>item13</t>
+  </si>
+  <si>
+    <t>Item 13</t>
+  </si>
+  <si>
+    <t>item14</t>
+  </si>
+  <si>
+    <t>Item 14</t>
+  </si>
+  <si>
+    <t>item15</t>
+  </si>
+  <si>
+    <t>Item 15</t>
+  </si>
+  <si>
+    <t>item16</t>
+  </si>
+  <si>
+    <t>Item 16</t>
+  </si>
+  <si>
+    <t>item17</t>
+  </si>
+  <si>
+    <t>Item 17</t>
+  </si>
+  <si>
+    <t>item18</t>
+  </si>
+  <si>
+    <t>Item 18</t>
+  </si>
+  <si>
+    <t>item19</t>
+  </si>
+  <si>
+    <t>Item 19</t>
+  </si>
+  <si>
+    <t>item20</t>
+  </si>
+  <si>
+    <t>Item 20</t>
+  </si>
+  <si>
+    <t>item21</t>
+  </si>
+  <si>
+    <t>Item 21</t>
+  </si>
+  <si>
+    <t>item22</t>
+  </si>
+  <si>
+    <t>Item 22</t>
+  </si>
+  <si>
+    <t>item23</t>
+  </si>
+  <si>
+    <t>Item 23</t>
+  </si>
+  <si>
+    <t>item24</t>
+  </si>
+  <si>
+    <t>Item 24</t>
+  </si>
+  <si>
+    <t>item25</t>
+  </si>
+  <si>
+    <t>Item 25</t>
+  </si>
+  <si>
+    <t>item26</t>
+  </si>
+  <si>
+    <t>Item 26</t>
+  </si>
+  <si>
+    <t>item27</t>
+  </si>
+  <si>
+    <t>Item 27</t>
+  </si>
+  <si>
+    <t>item28</t>
+  </si>
+  <si>
+    <t>Item 28</t>
+  </si>
+  <si>
+    <t>item29</t>
+  </si>
+  <si>
+    <t>Item 29</t>
+  </si>
+  <si>
+    <t>item30</t>
+  </si>
+  <si>
+    <t>Item 30</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
 </sst>
 </file>
@@ -444,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +601,7 @@
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -486,16 +612,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -506,16 +632,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -526,16 +652,16 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -546,16 +672,16 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -566,16 +692,16 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -586,16 +712,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -606,16 +732,16 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -626,16 +752,16 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -646,36 +772,436 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
